--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -86,18 +98,6 @@
   </si>
   <si>
     <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>4.48716477583792</v>
+        <v>0.358337</v>
       </c>
       <c r="H2">
-        <v>4.48716477583792</v>
+        <v>0.716674</v>
       </c>
       <c r="I2">
-        <v>0.9076540670934117</v>
+        <v>0.04630995300557136</v>
       </c>
       <c r="J2">
-        <v>0.9076540670934117</v>
+        <v>0.03219283665205891</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6698327409749389</v>
+        <v>0.6896435000000001</v>
       </c>
       <c r="N2">
-        <v>0.6698327409749389</v>
+        <v>1.379287</v>
       </c>
       <c r="O2">
-        <v>0.03173308366103752</v>
+        <v>0.03192461458046126</v>
       </c>
       <c r="P2">
-        <v>0.03173308366103752</v>
+        <v>0.02377638465777991</v>
       </c>
       <c r="Q2">
-        <v>3.005649881005712</v>
+        <v>0.2471247828595</v>
       </c>
       <c r="R2">
-        <v>3.005649881005712</v>
+        <v>0.9884991314380002</v>
       </c>
       <c r="S2">
-        <v>0.02880266244635619</v>
+        <v>0.001478427400942139</v>
       </c>
       <c r="T2">
-        <v>0.02880266244635619</v>
+        <v>0.0007654292674644282</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>4.48716477583792</v>
+        <v>0.358337</v>
       </c>
       <c r="H3">
-        <v>4.48716477583792</v>
+        <v>0.716674</v>
       </c>
       <c r="I3">
-        <v>0.9076540670934117</v>
+        <v>0.04630995300557136</v>
       </c>
       <c r="J3">
-        <v>0.9076540670934117</v>
+        <v>0.03219283665205891</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94065451455437</v>
+        <v>3.068283333333333</v>
       </c>
       <c r="N3">
-        <v>2.94065451455437</v>
+        <v>9.20485</v>
       </c>
       <c r="O3">
-        <v>0.1393124432716447</v>
+        <v>0.1420353600669325</v>
       </c>
       <c r="P3">
-        <v>0.1393124432716447</v>
+        <v>0.1586747749505109</v>
       </c>
       <c r="Q3">
-        <v>13.19520135561713</v>
+        <v>1.099479444816667</v>
       </c>
       <c r="R3">
-        <v>13.19520135561713</v>
+        <v>6.5968766689</v>
       </c>
       <c r="S3">
-        <v>0.1264475057322285</v>
+        <v>0.006577650849829053</v>
       </c>
       <c r="T3">
-        <v>0.1264475057322285</v>
+        <v>0.005108191110784008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>4.48716477583792</v>
+        <v>0.358337</v>
       </c>
       <c r="H4">
-        <v>4.48716477583792</v>
+        <v>0.716674</v>
       </c>
       <c r="I4">
-        <v>0.9076540670934117</v>
+        <v>0.04630995300557136</v>
       </c>
       <c r="J4">
-        <v>0.9076540670934117</v>
+        <v>0.03219283665205891</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.12320122407636</v>
+        <v>5.304132666666667</v>
       </c>
       <c r="N4">
-        <v>5.12320122407636</v>
+        <v>15.912398</v>
       </c>
       <c r="O4">
-        <v>0.2427098036732539</v>
+        <v>0.2455361227459804</v>
       </c>
       <c r="P4">
-        <v>0.2427098036732539</v>
+        <v>0.2743006319030685</v>
       </c>
       <c r="Q4">
-        <v>22.98864807220516</v>
+        <v>1.900666987375333</v>
       </c>
       <c r="R4">
-        <v>22.98864807220516</v>
+        <v>11.404001924252</v>
       </c>
       <c r="S4">
-        <v>0.2202965404274724</v>
+        <v>0.01137076630553655</v>
       </c>
       <c r="T4">
-        <v>0.2202965404274724</v>
+        <v>0.008830515436412022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>4.48716477583792</v>
+        <v>0.358337</v>
       </c>
       <c r="H5">
-        <v>4.48716477583792</v>
+        <v>0.716674</v>
       </c>
       <c r="I5">
-        <v>0.9076540670934117</v>
+        <v>0.04630995300557136</v>
       </c>
       <c r="J5">
-        <v>0.9076540670934117</v>
+        <v>0.03219283665205891</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.49098436464898</v>
+        <v>5.490996</v>
       </c>
       <c r="N5">
-        <v>5.49098436464898</v>
+        <v>16.472988</v>
       </c>
       <c r="O5">
-        <v>0.2601333968405917</v>
+        <v>0.2541863019993003</v>
       </c>
       <c r="P5">
-        <v>0.2601333968405917</v>
+        <v>0.2839641779781819</v>
       </c>
       <c r="Q5">
-        <v>24.63895162572967</v>
+        <v>1.967627033652</v>
       </c>
       <c r="R5">
-        <v>24.63895162572967</v>
+        <v>11.805762201912</v>
       </c>
       <c r="S5">
-        <v>0.2361111356291875</v>
+        <v>0.01177135570024756</v>
       </c>
       <c r="T5">
-        <v>0.2361111356291875</v>
+        <v>0.009141612396687792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>4.48716477583792</v>
+        <v>0.358337</v>
       </c>
       <c r="H6">
-        <v>4.48716477583792</v>
+        <v>0.716674</v>
       </c>
       <c r="I6">
-        <v>0.9076540670934117</v>
+        <v>0.04630995300557136</v>
       </c>
       <c r="J6">
-        <v>0.9076540670934117</v>
+        <v>0.03219283665205891</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.779007563898205</v>
+        <v>0.9428843333333333</v>
       </c>
       <c r="N6">
-        <v>0.779007563898205</v>
+        <v>2.828653</v>
       </c>
       <c r="O6">
-        <v>0.03690520138173965</v>
+        <v>0.04364750619069392</v>
       </c>
       <c r="P6">
-        <v>0.03690520138173965</v>
+        <v>0.0487608030753448</v>
       </c>
       <c r="Q6">
-        <v>3.495535300835333</v>
+        <v>0.3378703433536667</v>
       </c>
       <c r="R6">
-        <v>3.495535300835333</v>
+        <v>2.027222060122</v>
       </c>
       <c r="S6">
-        <v>0.03349715613103738</v>
+        <v>0.00202131396050142</v>
       </c>
       <c r="T6">
-        <v>0.03349715613103738</v>
+        <v>0.001569748568427787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>4.48716477583792</v>
+        <v>0.358337</v>
       </c>
       <c r="H7">
-        <v>4.48716477583792</v>
+        <v>0.716674</v>
       </c>
       <c r="I7">
-        <v>0.9076540670934117</v>
+        <v>0.04630995300557136</v>
       </c>
       <c r="J7">
-        <v>0.9076540670934117</v>
+        <v>0.03219283665205891</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.10466027912086</v>
+        <v>6.106310000000001</v>
       </c>
       <c r="N7">
-        <v>6.10466027912086</v>
+        <v>12.21262</v>
       </c>
       <c r="O7">
-        <v>0.2892060711717326</v>
+        <v>0.2826700944166318</v>
       </c>
       <c r="P7">
-        <v>0.2892060711717326</v>
+        <v>0.210523227435114</v>
       </c>
       <c r="Q7">
-        <v>27.39261657292801</v>
+        <v>2.188116806470001</v>
       </c>
       <c r="R7">
-        <v>27.39261657292801</v>
+        <v>8.752467225880002</v>
       </c>
       <c r="S7">
-        <v>0.2624990667271297</v>
+        <v>0.01309043878851463</v>
       </c>
       <c r="T7">
-        <v>0.2624990667271297</v>
+        <v>0.006777339872282871</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.456530116872918</v>
+        <v>4.809795</v>
       </c>
       <c r="H8">
-        <v>0.456530116872918</v>
+        <v>14.429385</v>
       </c>
       <c r="I8">
-        <v>0.09234593290658824</v>
+        <v>0.6215974917924526</v>
       </c>
       <c r="J8">
-        <v>0.09234593290658824</v>
+        <v>0.6481647643066011</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6698327409749389</v>
+        <v>0.6896435000000001</v>
       </c>
       <c r="N8">
-        <v>0.6698327409749389</v>
+        <v>1.379287</v>
       </c>
       <c r="O8">
-        <v>0.03173308366103752</v>
+        <v>0.03192461458046126</v>
       </c>
       <c r="P8">
-        <v>0.03173308366103752</v>
+        <v>0.02377638465777991</v>
       </c>
       <c r="Q8">
-        <v>0.3057988195225959</v>
+        <v>3.317043858082501</v>
       </c>
       <c r="R8">
-        <v>0.3057988195225959</v>
+        <v>19.902263148495</v>
       </c>
       <c r="S8">
-        <v>0.002930421214681322</v>
+        <v>0.01984426034965548</v>
       </c>
       <c r="T8">
-        <v>0.002930421214681322</v>
+        <v>0.015411014757773</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.456530116872918</v>
+        <v>4.809795</v>
       </c>
       <c r="H9">
-        <v>0.456530116872918</v>
+        <v>14.429385</v>
       </c>
       <c r="I9">
-        <v>0.09234593290658824</v>
+        <v>0.6215974917924526</v>
       </c>
       <c r="J9">
-        <v>0.09234593290658824</v>
+        <v>0.6481647643066011</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.94065451455437</v>
+        <v>3.068283333333333</v>
       </c>
       <c r="N9">
-        <v>2.94065451455437</v>
+        <v>9.20485</v>
       </c>
       <c r="O9">
-        <v>0.1393124432716447</v>
+        <v>0.1420353600669325</v>
       </c>
       <c r="P9">
-        <v>0.1393124432716447</v>
+        <v>0.1586747749505109</v>
       </c>
       <c r="Q9">
-        <v>1.342497349212381</v>
+        <v>14.75781383525</v>
       </c>
       <c r="R9">
-        <v>1.342497349212381</v>
+        <v>132.82032451725</v>
       </c>
       <c r="S9">
-        <v>0.01286493753941619</v>
+        <v>0.08828882356344316</v>
       </c>
       <c r="T9">
-        <v>0.01286493753941619</v>
+        <v>0.1028473981072009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.456530116872918</v>
+        <v>4.809795</v>
       </c>
       <c r="H10">
-        <v>0.456530116872918</v>
+        <v>14.429385</v>
       </c>
       <c r="I10">
-        <v>0.09234593290658824</v>
+        <v>0.6215974917924526</v>
       </c>
       <c r="J10">
-        <v>0.09234593290658824</v>
+        <v>0.6481647643066011</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.12320122407636</v>
+        <v>5.304132666666667</v>
       </c>
       <c r="N10">
-        <v>5.12320122407636</v>
+        <v>15.912398</v>
       </c>
       <c r="O10">
-        <v>0.2427098036732539</v>
+        <v>0.2455361227459804</v>
       </c>
       <c r="P10">
-        <v>0.2427098036732539</v>
+        <v>0.2743006319030685</v>
       </c>
       <c r="Q10">
-        <v>2.338895653591057</v>
+        <v>25.51179077947</v>
       </c>
       <c r="R10">
-        <v>2.338895653591057</v>
+        <v>229.60611701523</v>
       </c>
       <c r="S10">
-        <v>0.02241326324578151</v>
+        <v>0.1526246380433452</v>
       </c>
       <c r="T10">
-        <v>0.02241326324578151</v>
+        <v>0.1777920044266041</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.456530116872918</v>
+        <v>4.809795</v>
       </c>
       <c r="H11">
-        <v>0.456530116872918</v>
+        <v>14.429385</v>
       </c>
       <c r="I11">
-        <v>0.09234593290658824</v>
+        <v>0.6215974917924526</v>
       </c>
       <c r="J11">
-        <v>0.09234593290658824</v>
+        <v>0.6481647643066011</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.49098436464898</v>
+        <v>5.490996</v>
       </c>
       <c r="N11">
-        <v>5.49098436464898</v>
+        <v>16.472988</v>
       </c>
       <c r="O11">
-        <v>0.2601333968405917</v>
+        <v>0.2541863019993003</v>
       </c>
       <c r="P11">
-        <v>0.2601333968405917</v>
+        <v>0.2839641779781819</v>
       </c>
       <c r="Q11">
-        <v>2.506799733740564</v>
+        <v>26.41056510582</v>
       </c>
       <c r="R11">
-        <v>2.506799733740564</v>
+        <v>237.69508595238</v>
       </c>
       <c r="S11">
-        <v>0.02402226121140417</v>
+        <v>0.1580015677707639</v>
       </c>
       <c r="T11">
-        <v>0.02402226121140417</v>
+        <v>0.184055574490746</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.456530116872918</v>
+        <v>4.809795</v>
       </c>
       <c r="H12">
-        <v>0.456530116872918</v>
+        <v>14.429385</v>
       </c>
       <c r="I12">
-        <v>0.09234593290658824</v>
+        <v>0.6215974917924526</v>
       </c>
       <c r="J12">
-        <v>0.09234593290658824</v>
+        <v>0.6481647643066011</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.779007563898205</v>
+        <v>0.9428843333333333</v>
       </c>
       <c r="N12">
-        <v>0.779007563898205</v>
+        <v>2.828653</v>
       </c>
       <c r="O12">
-        <v>0.03690520138173965</v>
+        <v>0.04364750619069392</v>
       </c>
       <c r="P12">
-        <v>0.03690520138173965</v>
+        <v>0.0487608030753448</v>
       </c>
       <c r="Q12">
-        <v>0.3556404141913347</v>
+        <v>4.535080352045</v>
       </c>
       <c r="R12">
-        <v>0.3556404141913347</v>
+        <v>40.815723168405</v>
       </c>
       <c r="S12">
-        <v>0.003408045250702257</v>
+        <v>0.02713118037113089</v>
       </c>
       <c r="T12">
-        <v>0.003408045250702257</v>
+        <v>0.03160503443273145</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1549 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.809795</v>
+      </c>
+      <c r="H13">
+        <v>14.429385</v>
+      </c>
+      <c r="I13">
+        <v>0.6215974917924526</v>
+      </c>
+      <c r="J13">
+        <v>0.6481647643066011</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.106310000000001</v>
+      </c>
+      <c r="N13">
+        <v>12.21262</v>
+      </c>
+      <c r="O13">
+        <v>0.2826700944166318</v>
+      </c>
+      <c r="P13">
+        <v>0.210523227435114</v>
+      </c>
+      <c r="Q13">
+        <v>29.37009930645</v>
+      </c>
+      <c r="R13">
+        <v>176.2205958387</v>
+      </c>
+      <c r="S13">
+        <v>0.1757070216941141</v>
+      </c>
+      <c r="T13">
+        <v>0.1364537380915456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.796018</v>
+      </c>
+      <c r="H14">
+        <v>2.388054</v>
+      </c>
+      <c r="I14">
+        <v>0.1028739878147914</v>
+      </c>
+      <c r="J14">
+        <v>0.1072708544446929</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6896435000000001</v>
+      </c>
+      <c r="N14">
+        <v>1.379287</v>
+      </c>
+      <c r="O14">
+        <v>0.03192461458046126</v>
+      </c>
+      <c r="P14">
+        <v>0.02377638465777991</v>
+      </c>
+      <c r="Q14">
+        <v>0.548968639583</v>
+      </c>
+      <c r="R14">
+        <v>3.293811837498</v>
+      </c>
+      <c r="S14">
+        <v>0.003284212411342283</v>
+      </c>
+      <c r="T14">
+        <v>0.002550513097845739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.796018</v>
+      </c>
+      <c r="H15">
+        <v>2.388054</v>
+      </c>
+      <c r="I15">
+        <v>0.1028739878147914</v>
+      </c>
+      <c r="J15">
+        <v>0.1072708544446929</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.068283333333333</v>
+      </c>
+      <c r="N15">
+        <v>9.20485</v>
+      </c>
+      <c r="O15">
+        <v>0.1420353600669325</v>
+      </c>
+      <c r="P15">
+        <v>0.1586747749505109</v>
+      </c>
+      <c r="Q15">
+        <v>2.442408762433333</v>
+      </c>
+      <c r="R15">
+        <v>21.9816788619</v>
+      </c>
+      <c r="S15">
+        <v>0.01461174390079513</v>
+      </c>
+      <c r="T15">
+        <v>0.01702117868776067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.796018</v>
+      </c>
+      <c r="H16">
+        <v>2.388054</v>
+      </c>
+      <c r="I16">
+        <v>0.1028739878147914</v>
+      </c>
+      <c r="J16">
+        <v>0.1072708544446929</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.304132666666667</v>
+      </c>
+      <c r="N16">
+        <v>15.912398</v>
+      </c>
+      <c r="O16">
+        <v>0.2455361227459804</v>
+      </c>
+      <c r="P16">
+        <v>0.2743006319030685</v>
+      </c>
+      <c r="Q16">
+        <v>4.222185077054667</v>
+      </c>
+      <c r="R16">
+        <v>37.999665693492</v>
+      </c>
+      <c r="S16">
+        <v>0.0252592800994611</v>
+      </c>
+      <c r="T16">
+        <v>0.02942446315896136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.796018</v>
+      </c>
+      <c r="H17">
+        <v>2.388054</v>
+      </c>
+      <c r="I17">
+        <v>0.1028739878147914</v>
+      </c>
+      <c r="J17">
+        <v>0.1072708544446929</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.490996</v>
+      </c>
+      <c r="N17">
+        <v>16.472988</v>
+      </c>
+      <c r="O17">
+        <v>0.2541863019993003</v>
+      </c>
+      <c r="P17">
+        <v>0.2839641779781819</v>
+      </c>
+      <c r="Q17">
+        <v>4.370931653928</v>
+      </c>
+      <c r="R17">
+        <v>39.338384885352</v>
+      </c>
+      <c r="S17">
+        <v>0.0261491585345629</v>
+      </c>
+      <c r="T17">
+        <v>0.03046108000340443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.796018</v>
+      </c>
+      <c r="H18">
+        <v>2.388054</v>
+      </c>
+      <c r="I18">
+        <v>0.1028739878147914</v>
+      </c>
+      <c r="J18">
+        <v>0.1072708544446929</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9428843333333333</v>
+      </c>
+      <c r="N18">
+        <v>2.828653</v>
+      </c>
+      <c r="O18">
+        <v>0.04364750619069392</v>
+      </c>
+      <c r="P18">
+        <v>0.0487608030753448</v>
+      </c>
+      <c r="Q18">
+        <v>0.7505529012513333</v>
+      </c>
+      <c r="R18">
+        <v>6.754976111262</v>
+      </c>
+      <c r="S18">
+        <v>0.004490193020007478</v>
+      </c>
+      <c r="T18">
+        <v>0.005230613009301648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.796018</v>
+      </c>
+      <c r="H19">
+        <v>2.388054</v>
+      </c>
+      <c r="I19">
+        <v>0.1028739878147914</v>
+      </c>
+      <c r="J19">
+        <v>0.1072708544446929</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.106310000000001</v>
+      </c>
+      <c r="N19">
+        <v>12.21262</v>
+      </c>
+      <c r="O19">
+        <v>0.2826700944166318</v>
+      </c>
+      <c r="P19">
+        <v>0.210523227435114</v>
+      </c>
+      <c r="Q19">
+        <v>4.86073267358</v>
+      </c>
+      <c r="R19">
+        <v>29.16439604148</v>
+      </c>
+      <c r="S19">
+        <v>0.02907939984862251</v>
+      </c>
+      <c r="T19">
+        <v>0.0225830064874191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.050325666666667</v>
+      </c>
+      <c r="H20">
+        <v>3.150977</v>
+      </c>
+      <c r="I20">
+        <v>0.1357396313076203</v>
+      </c>
+      <c r="J20">
+        <v>0.141541185888416</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6896435000000001</v>
+      </c>
+      <c r="N20">
+        <v>1.379287</v>
+      </c>
+      <c r="O20">
+        <v>0.03192461458046126</v>
+      </c>
+      <c r="P20">
+        <v>0.02377638465777991</v>
+      </c>
+      <c r="Q20">
+        <v>0.7243502688998334</v>
+      </c>
+      <c r="R20">
+        <v>4.346101613399001</v>
+      </c>
+      <c r="S20">
+        <v>0.004333435412789691</v>
+      </c>
+      <c r="T20">
+        <v>0.003365337680601307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.456530116872918</v>
-      </c>
-      <c r="H13">
-        <v>0.456530116872918</v>
-      </c>
-      <c r="I13">
-        <v>0.09234593290658824</v>
-      </c>
-      <c r="J13">
-        <v>0.09234593290658824</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.10466027912086</v>
-      </c>
-      <c r="N13">
-        <v>6.10466027912086</v>
-      </c>
-      <c r="O13">
-        <v>0.2892060711717326</v>
-      </c>
-      <c r="P13">
-        <v>0.2892060711717326</v>
-      </c>
-      <c r="Q13">
-        <v>2.786961270696506</v>
-      </c>
-      <c r="R13">
-        <v>2.786961270696506</v>
-      </c>
-      <c r="S13">
-        <v>0.0267070044446028</v>
-      </c>
-      <c r="T13">
-        <v>0.0267070044446028</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.050325666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.150977</v>
+      </c>
+      <c r="I21">
+        <v>0.1357396313076203</v>
+      </c>
+      <c r="J21">
+        <v>0.141541185888416</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.068283333333333</v>
+      </c>
+      <c r="N21">
+        <v>9.20485</v>
+      </c>
+      <c r="O21">
+        <v>0.1420353600669325</v>
+      </c>
+      <c r="P21">
+        <v>0.1586747749505109</v>
+      </c>
+      <c r="Q21">
+        <v>3.222696737605556</v>
+      </c>
+      <c r="R21">
+        <v>29.00427063845</v>
+      </c>
+      <c r="S21">
+        <v>0.01927982740813052</v>
+      </c>
+      <c r="T21">
+        <v>0.02245901581707284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>1.050325666666667</v>
+      </c>
+      <c r="H22">
+        <v>3.150977</v>
+      </c>
+      <c r="I22">
+        <v>0.1357396313076203</v>
+      </c>
+      <c r="J22">
+        <v>0.141541185888416</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.304132666666667</v>
+      </c>
+      <c r="N22">
+        <v>15.912398</v>
+      </c>
+      <c r="O22">
+        <v>0.2455361227459804</v>
+      </c>
+      <c r="P22">
+        <v>0.2743006319030685</v>
+      </c>
+      <c r="Q22">
+        <v>5.571066679205112</v>
+      </c>
+      <c r="R22">
+        <v>50.139600112846</v>
+      </c>
+      <c r="S22">
+        <v>0.03332898277424198</v>
+      </c>
+      <c r="T22">
+        <v>0.03882483672950218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>1.050325666666667</v>
+      </c>
+      <c r="H23">
+        <v>3.150977</v>
+      </c>
+      <c r="I23">
+        <v>0.1357396313076203</v>
+      </c>
+      <c r="J23">
+        <v>0.141541185888416</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.490996</v>
+      </c>
+      <c r="N23">
+        <v>16.472988</v>
+      </c>
+      <c r="O23">
+        <v>0.2541863019993003</v>
+      </c>
+      <c r="P23">
+        <v>0.2839641779781819</v>
+      </c>
+      <c r="Q23">
+        <v>5.767334034364</v>
+      </c>
+      <c r="R23">
+        <v>51.906006309276</v>
+      </c>
+      <c r="S23">
+        <v>0.03450315491683245</v>
+      </c>
+      <c r="T23">
+        <v>0.04019262650086107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>1.050325666666667</v>
+      </c>
+      <c r="H24">
+        <v>3.150977</v>
+      </c>
+      <c r="I24">
+        <v>0.1357396313076203</v>
+      </c>
+      <c r="J24">
+        <v>0.141541185888416</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.9428843333333333</v>
+      </c>
+      <c r="N24">
+        <v>2.828653</v>
+      </c>
+      <c r="O24">
+        <v>0.04364750619069392</v>
+      </c>
+      <c r="P24">
+        <v>0.0487608030753448</v>
+      </c>
+      <c r="Q24">
+        <v>0.9903356159978889</v>
+      </c>
+      <c r="R24">
+        <v>8.913020543981</v>
+      </c>
+      <c r="S24">
+        <v>0.005924696397821868</v>
+      </c>
+      <c r="T24">
+        <v>0.006901661892155823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>1.050325666666667</v>
+      </c>
+      <c r="H25">
+        <v>3.150977</v>
+      </c>
+      <c r="I25">
+        <v>0.1357396313076203</v>
+      </c>
+      <c r="J25">
+        <v>0.141541185888416</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.106310000000001</v>
+      </c>
+      <c r="N25">
+        <v>12.21262</v>
+      </c>
+      <c r="O25">
+        <v>0.2826700944166318</v>
+      </c>
+      <c r="P25">
+        <v>0.210523227435114</v>
+      </c>
+      <c r="Q25">
+        <v>6.413614121623334</v>
+      </c>
+      <c r="R25">
+        <v>38.48168472974</v>
+      </c>
+      <c r="S25">
+        <v>0.03836953439780382</v>
+      </c>
+      <c r="T25">
+        <v>0.02979770726822274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.130177</v>
+      </c>
+      <c r="H26">
+        <v>0.390531</v>
+      </c>
+      <c r="I26">
+        <v>0.01682352297531726</v>
+      </c>
+      <c r="J26">
+        <v>0.01754256564430301</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.6896435000000001</v>
+      </c>
+      <c r="N26">
+        <v>1.379287</v>
+      </c>
+      <c r="O26">
+        <v>0.03192461458046126</v>
+      </c>
+      <c r="P26">
+        <v>0.02377638465777991</v>
+      </c>
+      <c r="Q26">
+        <v>0.08977572189950001</v>
+      </c>
+      <c r="R26">
+        <v>0.538654331397</v>
+      </c>
+      <c r="S26">
+        <v>0.0005370844868725384</v>
+      </c>
+      <c r="T26">
+        <v>0.000417098788643303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.130177</v>
+      </c>
+      <c r="H27">
+        <v>0.390531</v>
+      </c>
+      <c r="I27">
+        <v>0.01682352297531726</v>
+      </c>
+      <c r="J27">
+        <v>0.01754256564430301</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.068283333333333</v>
+      </c>
+      <c r="N27">
+        <v>9.20485</v>
+      </c>
+      <c r="O27">
+        <v>0.1420353600669325</v>
+      </c>
+      <c r="P27">
+        <v>0.1586747749505109</v>
+      </c>
+      <c r="Q27">
+        <v>0.3994199194833333</v>
+      </c>
+      <c r="R27">
+        <v>3.59477927535</v>
+      </c>
+      <c r="S27">
+        <v>0.0023895351433935</v>
+      </c>
+      <c r="T27">
+        <v>0.002783562655664345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.130177</v>
+      </c>
+      <c r="H28">
+        <v>0.390531</v>
+      </c>
+      <c r="I28">
+        <v>0.01682352297531726</v>
+      </c>
+      <c r="J28">
+        <v>0.01754256564430301</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.304132666666667</v>
+      </c>
+      <c r="N28">
+        <v>15.912398</v>
+      </c>
+      <c r="O28">
+        <v>0.2455361227459804</v>
+      </c>
+      <c r="P28">
+        <v>0.2743006319030685</v>
+      </c>
+      <c r="Q28">
+        <v>0.6904760781486666</v>
+      </c>
+      <c r="R28">
+        <v>6.214284703338</v>
+      </c>
+      <c r="S28">
+        <v>0.004130782602287319</v>
+      </c>
+      <c r="T28">
+        <v>0.004811936841433375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.130177</v>
+      </c>
+      <c r="H29">
+        <v>0.390531</v>
+      </c>
+      <c r="I29">
+        <v>0.01682352297531726</v>
+      </c>
+      <c r="J29">
+        <v>0.01754256564430301</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.490996</v>
+      </c>
+      <c r="N29">
+        <v>16.472988</v>
+      </c>
+      <c r="O29">
+        <v>0.2541863019993003</v>
+      </c>
+      <c r="P29">
+        <v>0.2839641779781819</v>
+      </c>
+      <c r="Q29">
+        <v>0.714801386292</v>
+      </c>
+      <c r="R29">
+        <v>6.433212476627999</v>
+      </c>
+      <c r="S29">
+        <v>0.00427630909169616</v>
+      </c>
+      <c r="T29">
+        <v>0.004981460232812799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.130177</v>
+      </c>
+      <c r="H30">
+        <v>0.390531</v>
+      </c>
+      <c r="I30">
+        <v>0.01682352297531726</v>
+      </c>
+      <c r="J30">
+        <v>0.01754256564430301</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.9428843333333333</v>
+      </c>
+      <c r="N30">
+        <v>2.828653</v>
+      </c>
+      <c r="O30">
+        <v>0.04364750619069392</v>
+      </c>
+      <c r="P30">
+        <v>0.0487608030753448</v>
+      </c>
+      <c r="Q30">
+        <v>0.1227418538603333</v>
+      </c>
+      <c r="R30">
+        <v>1.104676684743</v>
+      </c>
+      <c r="S30">
+        <v>0.0007343048232144416</v>
+      </c>
+      <c r="T30">
+        <v>0.0008553895888181682</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.130177</v>
+      </c>
+      <c r="H31">
+        <v>0.390531</v>
+      </c>
+      <c r="I31">
+        <v>0.01682352297531726</v>
+      </c>
+      <c r="J31">
+        <v>0.01754256564430301</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.106310000000001</v>
+      </c>
+      <c r="N31">
+        <v>12.21262</v>
+      </c>
+      <c r="O31">
+        <v>0.2826700944166318</v>
+      </c>
+      <c r="P31">
+        <v>0.210523227435114</v>
+      </c>
+      <c r="Q31">
+        <v>0.79490111687</v>
+      </c>
+      <c r="R31">
+        <v>4.76940670122</v>
+      </c>
+      <c r="S31">
+        <v>0.004755506827853304</v>
+      </c>
+      <c r="T31">
+        <v>0.003693117536931019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.593144</v>
+      </c>
+      <c r="H32">
+        <v>1.186288</v>
+      </c>
+      <c r="I32">
+        <v>0.07665541310424717</v>
+      </c>
+      <c r="J32">
+        <v>0.05328779306392817</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.6896435000000001</v>
+      </c>
+      <c r="N32">
+        <v>1.379287</v>
+      </c>
+      <c r="O32">
+        <v>0.03192461458046126</v>
+      </c>
+      <c r="P32">
+        <v>0.02377638465777991</v>
+      </c>
+      <c r="Q32">
+        <v>0.4090579041640001</v>
+      </c>
+      <c r="R32">
+        <v>1.636231616656</v>
+      </c>
+      <c r="S32">
+        <v>0.00244719451885913</v>
+      </c>
+      <c r="T32">
+        <v>0.001266991065452132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.593144</v>
+      </c>
+      <c r="H33">
+        <v>1.186288</v>
+      </c>
+      <c r="I33">
+        <v>0.07665541310424717</v>
+      </c>
+      <c r="J33">
+        <v>0.05328779306392817</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.068283333333333</v>
+      </c>
+      <c r="N33">
+        <v>9.20485</v>
+      </c>
+      <c r="O33">
+        <v>0.1420353600669325</v>
+      </c>
+      <c r="P33">
+        <v>0.1586747749505109</v>
+      </c>
+      <c r="Q33">
+        <v>1.819933849466667</v>
+      </c>
+      <c r="R33">
+        <v>10.9196030968</v>
+      </c>
+      <c r="S33">
+        <v>0.01088777920134121</v>
+      </c>
+      <c r="T33">
+        <v>0.0084554285720282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.593144</v>
+      </c>
+      <c r="H34">
+        <v>1.186288</v>
+      </c>
+      <c r="I34">
+        <v>0.07665541310424717</v>
+      </c>
+      <c r="J34">
+        <v>0.05328779306392817</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.304132666666667</v>
+      </c>
+      <c r="N34">
+        <v>15.912398</v>
+      </c>
+      <c r="O34">
+        <v>0.2455361227459804</v>
+      </c>
+      <c r="P34">
+        <v>0.2743006319030685</v>
+      </c>
+      <c r="Q34">
+        <v>3.146114466437334</v>
+      </c>
+      <c r="R34">
+        <v>18.876686798624</v>
+      </c>
+      <c r="S34">
+        <v>0.01882167292110826</v>
+      </c>
+      <c r="T34">
+        <v>0.01461687531015545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.593144</v>
+      </c>
+      <c r="H35">
+        <v>1.186288</v>
+      </c>
+      <c r="I35">
+        <v>0.07665541310424717</v>
+      </c>
+      <c r="J35">
+        <v>0.05328779306392817</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5.490996</v>
+      </c>
+      <c r="N35">
+        <v>16.472988</v>
+      </c>
+      <c r="O35">
+        <v>0.2541863019993003</v>
+      </c>
+      <c r="P35">
+        <v>0.2839641779781819</v>
+      </c>
+      <c r="Q35">
+        <v>3.256951331424</v>
+      </c>
+      <c r="R35">
+        <v>19.541707988544</v>
+      </c>
+      <c r="S35">
+        <v>0.01948475598519729</v>
+      </c>
+      <c r="T35">
+        <v>0.01513182435366982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.593144</v>
+      </c>
+      <c r="H36">
+        <v>1.186288</v>
+      </c>
+      <c r="I36">
+        <v>0.07665541310424717</v>
+      </c>
+      <c r="J36">
+        <v>0.05328779306392817</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.9428843333333333</v>
+      </c>
+      <c r="N36">
+        <v>2.828653</v>
+      </c>
+      <c r="O36">
+        <v>0.04364750619069392</v>
+      </c>
+      <c r="P36">
+        <v>0.0487608030753448</v>
+      </c>
+      <c r="Q36">
+        <v>0.5592661850106667</v>
+      </c>
+      <c r="R36">
+        <v>3.355597110064</v>
+      </c>
+      <c r="S36">
+        <v>0.003345817618017828</v>
+      </c>
+      <c r="T36">
+        <v>0.002598355583909926</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.593144</v>
+      </c>
+      <c r="H37">
+        <v>1.186288</v>
+      </c>
+      <c r="I37">
+        <v>0.07665541310424717</v>
+      </c>
+      <c r="J37">
+        <v>0.05328779306392817</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>6.106310000000001</v>
+      </c>
+      <c r="N37">
+        <v>12.21262</v>
+      </c>
+      <c r="O37">
+        <v>0.2826700944166318</v>
+      </c>
+      <c r="P37">
+        <v>0.210523227435114</v>
+      </c>
+      <c r="Q37">
+        <v>3.62192113864</v>
+      </c>
+      <c r="R37">
+        <v>14.48768455456</v>
+      </c>
+      <c r="S37">
+        <v>0.02166819285972346</v>
+      </c>
+      <c r="T37">
+        <v>0.01121831817871264</v>
       </c>
     </row>
   </sheetData>
